--- a/Registro Criptoanalisis.xlsx
+++ b/Registro Criptoanalisis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisd\OneDrive\Documentos\Criptoanalisis Practica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1959B3A0-B668-4C2D-985D-824F73E54C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECFFD18-94FF-41DB-B237-88FC8B620DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B20796FB-B555-44A6-B3B6-0C98BBC793D3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>A</t>
   </si>
@@ -186,13 +186,37 @@
   </si>
   <si>
     <t xml:space="preserve">Suministro de </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENDAFA </t>
+  </si>
+  <si>
+    <t>engaña/enfada</t>
+  </si>
+  <si>
+    <t>¬</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>”</t>
+  </si>
+  <si>
+    <t>:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +229,11 @@
       <color rgb="FF212121"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="3">
@@ -233,11 +262,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,16 +635,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01C5306-3E20-4164-85AB-E783D7749655}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,13 +652,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -634,13 +668,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -654,7 +690,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -663,7 +699,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -677,7 +713,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -691,11 +727,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="J9" s="3" t="s">
         <v>46</v>
       </c>
@@ -703,7 +741,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -715,13 +753,19 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -729,13 +773,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -743,7 +787,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -751,7 +795,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -759,7 +803,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -767,7 +811,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -775,13 +819,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -789,25 +835,27 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -815,17 +863,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
